--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d15 land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB7102-3FDE-4D22-BBAA-A353EE588C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
+    <workbookView xWindow="5784" yWindow="2352" windowWidth="17220" windowHeight="9912" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="data from RPEpUACE" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="6" r:id="rId2"/>
+    <sheet name="data from RPEpUACE" sheetId="7" r:id="rId3"/>
     <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Source:</t>
   </si>
@@ -83,12 +85,87 @@
     <t>N2O (g)</t>
   </si>
   <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>CH4 GWP</t>
+  </si>
+  <si>
+    <t>N2O GWP</t>
+  </si>
+  <si>
+    <t>CO2 Emission</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
+  </si>
+  <si>
+    <t>Report: "Quarta Comunicação Nacional e Relatórios De Atualização Bienal Do Brasil à Convenção-Quadro das Nações Unidas Sobre Mudança do Clima"</t>
+  </si>
+  <si>
+    <t>Version: "Relatório de referência para consulta pública - LULUCF"</t>
+  </si>
+  <si>
+    <t>http://antigo.mctic.gov.br/mctic/opencms/ciencia/SEPED/clima/Comunicacao_Nacional/Comunicacao_Nacional.html</t>
+  </si>
+  <si>
+    <t>Rebound CH4 and N2O Emissions</t>
+  </si>
+  <si>
+    <t>See land/RPEpUACE</t>
+  </si>
+  <si>
+    <t>Projected pollutant emissions data for the land use sector until 2050.</t>
+  </si>
+  <si>
+    <t>In "BLAPE" table, for CH4 and N2O calculation, the signal (-) has been changed to (+) as in Brazil CO2 emission</t>
+  </si>
+  <si>
+    <t>from LULUCF is positive.</t>
+  </si>
+  <si>
+    <t>For the Land sector for Brazil, emissions and removals (net emissions) associated with</t>
+  </si>
+  <si>
+    <t>land use transitions related to deforestation are accounted for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this, data from the Fourth National Communication were used, </t>
+  </si>
+  <si>
+    <t>which presents the annualized biome emissions, the most recent database available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From this database, an average was calculated, </t>
+  </si>
+  <si>
+    <t>based on the estimated emissions for the sector between the years 2010 and 2016.</t>
+  </si>
+  <si>
+    <t>This value was considered as a trend for the entire projection period of the scenario BAU.</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Emissions (Gg)</t>
+  </si>
+  <si>
+    <t>(g)</t>
+  </si>
+  <si>
     <t>Rebound Emis Factor</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>VOC</t>
   </si>
   <si>
@@ -113,91 +190,20 @@
     <t>OC</t>
   </si>
   <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
     <t>F gases</t>
-  </si>
-  <si>
-    <t>Rebound CH4 and N2O Emissions</t>
-  </si>
-  <si>
-    <t>See land/RPEpUACE</t>
-  </si>
-  <si>
-    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
-  </si>
-  <si>
-    <t>CO2 Emission</t>
-  </si>
-  <si>
-    <t>In "BLAPE" table, for CH4 and N2O calculation, the signal (-) has been changed to (+) as in Brazil CO2 emission</t>
-  </si>
-  <si>
-    <t>from LULUCF is positive.</t>
-  </si>
-  <si>
-    <t>Report: "Quarta Comunicação Nacional e Relatórios De Atualização Bienal Do Brasil à Convenção-Quadro das Nações Unidas Sobre Mudança do Clima"</t>
-  </si>
-  <si>
-    <t>Version: "Relatório de referência para consulta pública - LULUCF"</t>
-  </si>
-  <si>
-    <t>http://antigo.mctic.gov.br/mctic/opencms/ciencia/SEPED/clima/Comunicacao_Nacional/Comunicacao_Nacional.html</t>
-  </si>
-  <si>
-    <t>For the Land sector for Brazil, emissions and removals (net emissions) associated with</t>
-  </si>
-  <si>
-    <t>land use transitions related to deforestation are accounted for.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For this, data from the Fourth National Communication were used, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From this database, an average was calculated, </t>
-  </si>
-  <si>
-    <t>based on the estimated emissions for the sector between the years 2010 and 2016.</t>
-  </si>
-  <si>
-    <t>This value was considered as a trend for the entire projection period of the scenario BAU.</t>
-  </si>
-  <si>
-    <t>which presents the annualized biome emissions, the most recent database available.</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Emissions (Gg)</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>(g)</t>
-  </si>
-  <si>
-    <t>Projected pollutant emissions data for the land use sector until 2050.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="* #,##0.00\ ;\-* #,##0.00\ ;* \-#\ ;@\ "/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +228,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,45 +242,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +253,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,30 +269,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,103 +292,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Body: normal cell" xfId="7"/>
-    <cellStyle name="Comma" xfId="13" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="8"/>
-    <cellStyle name="Footnotes: top row" xfId="9"/>
-    <cellStyle name="Header: bottom row" xfId="10"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="11"/>
-    <cellStyle name="Table title" xfId="12"/>
-    <cellStyle name="Texto Explicativo 2" xfId="3"/>
-    <cellStyle name="Texto Explicativo 2 2" xfId="5"/>
-    <cellStyle name="Texto Explicativo 3" xfId="4"/>
-    <cellStyle name="Vírgula 2" xfId="6"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,9 +377,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,7 +449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,96 +622,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" customWidth="1"/>
-    <col min="2" max="2" width="76.46484375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{28E45434-BF4A-40CF-BA05-2BB4327A7C6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -834,254 +729,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C63694-8548-4798-9876-F1B5EF923EAF}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.46484375" customWidth="1"/>
-    <col min="2" max="6" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="C12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2011</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2012</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2014</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2015</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2016</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2010</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2011</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2012</v>
-      </c>
-      <c r="F12" s="17">
-        <v>2013</v>
-      </c>
-      <c r="G12" s="17">
-        <v>2014</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2015</v>
-      </c>
-      <c r="I12" s="17">
-        <v>2016</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="C13" s="11">
         <v>927770.20031314949</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="11">
         <v>616949.31445093325</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="11">
         <v>503513.54636207997</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="11">
         <v>647875.0387680378</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="11">
         <v>550263.09780875617</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="11">
         <v>641495.50583126117</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>678383.16603900539</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="11">
         <f>AVERAGE(C13:I13)</f>
         <v>652321.40993903182</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <f>J13*10^9</f>
         <v>652321409939031.88</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="J18" s="21"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,115 +872,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2398E0-C79E-4926-91C2-517BD5042907}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B11" s="3">
+        <v>2.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8.0799999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1210,279 +992,260 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="17" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14">
-        <v>2017</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E1" s="3">
+      <c r="B1">
         <v>2020</v>
       </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
       <c r="F1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="H1">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2025</v>
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
       </c>
       <c r="K1">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="L1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="M1">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2030</v>
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
       </c>
       <c r="P1">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="Q1">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="R1">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1" s="6">
-        <v>2035</v>
-      </c>
-      <c r="U1" s="6">
-        <v>2036</v>
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
       </c>
       <c r="V1">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="W1">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="X1">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="Y1">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="Z1">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="AA1">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="AB1">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="AC1">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="AD1">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="AE1">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="C2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="D2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="E2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="F2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="G2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="H2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="I2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="J2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="K2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="L2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="M2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="N2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="O2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="P2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="Q2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="R2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="S2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="T2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="U2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="V2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="W2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="X2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="Y2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="Z2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AA2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AB2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AC2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AD2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AE2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AF2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AG2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AH2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-      <c r="AI2" s="16">
-        <f>Data!$J$16</f>
-        <v>652321409939031.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="D2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="F2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="H2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="J2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="K2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="L2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="M2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="N2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="O2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="P2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="R2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="S2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="T2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="U2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="V2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="W2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="X2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>Data!$J$16</f>
+        <v>652321409939031.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
@@ -1569,27 +1332,18 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1676,27 +1430,18 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
@@ -1783,27 +1528,18 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -1890,27 +1626,18 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
@@ -1997,27 +1724,18 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
@@ -2104,27 +1822,18 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
@@ -2211,27 +1920,18 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
@@ -2318,309 +2018,276 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="3">
         <f>B$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="3">
         <f>C$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="3">
         <f>D$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>E$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>F$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>G$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>H$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f>I$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f>J$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f>K$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f>L$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <f>M$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <f>N$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <f>O$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <f>P$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <f>Q$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <f>R$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <f>S$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <f>T$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <f>U$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <f>V$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <f>W$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <f>X$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <f>Y$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <f>Z$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
         <f>AA$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="3">
         <f>AB$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="3">
         <f>AC$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="3">
         <f>AD$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AE11" s="3">
         <f>AE$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="3">
         <f>AF$2*'data from RPEpUACE'!$B11</f>
         <v>1317689248076.8445</v>
       </c>
-      <c r="AG11" s="4">
-        <f>AG$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
-      </c>
-      <c r="AH11" s="4">
-        <f>AH$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
-      </c>
-      <c r="AI11" s="4">
-        <f>AI$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="3">
         <f>B$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="3">
         <f>C$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="3">
         <f>D$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>E$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f>F$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f>G$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>H$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f>I$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f>J$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f>K$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f>L$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f>M$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f>N$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f>O$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <f>P$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <f>Q$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <f>R$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <f>S$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <f>T$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <f>U$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <f>V$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <f>W$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <f>X$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <f>Y$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <f>Z$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3">
         <f>AA$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="3">
         <f>AB$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="3">
         <f>AC$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="3">
         <f>AD$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE12" s="3">
         <f>AE$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF12" s="3">
         <f>AF$2*'data from RPEpUACE'!$B12</f>
         <v>52707569923.073776</v>
       </c>
-      <c r="AG12" s="4">
-        <f>AG$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
-      </c>
-      <c r="AH12" s="4">
-        <f>AH$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
-      </c>
-      <c r="AI12" s="4">
-        <f>AI$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
@@ -2707,18 +2374,6 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d15 land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssy02/Desktop/Postdoc Projects/eps-brazil-cpl/InputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB7102-3FDE-4D22-BBAA-A353EE588C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4222743-B16C-0D42-A968-34400E84F608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="2352" windowWidth="17220" windowHeight="9912" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -308,20 +308,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,18 +629,18 @@
       <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,42 +648,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -691,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -699,22 +699,22 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -736,25 +736,25 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -764,12 +764,12 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -779,22 +779,22 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
@@ -823,7 +823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
@@ -853,7 +853,7 @@
         <v>652321.40993903182</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>41</v>
       </c>
@@ -862,7 +862,7 @@
         <v>652321409939031.88</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="12"/>
     </row>
   </sheetData>
@@ -876,21 +876,21 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -962,23 +962,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>2.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.3636084384378205E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>8.0799999999999999E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.335357177073511E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -999,16 +999,16 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="17" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>652321409939031.88</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2019,265 +2019,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
         <f>B$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="C11" s="3">
         <f>C$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="D11" s="3">
         <f>D$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="E11" s="3">
         <f>E$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="F11" s="3">
         <f>F$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="G11" s="3">
         <f>G$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="H11" s="3">
         <f>H$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="I11" s="3">
         <f>I$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="J11" s="3">
         <f>J$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="K11" s="3">
         <f>K$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="L11" s="3">
         <f>L$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="M11" s="3">
         <f>M$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="N11" s="3">
         <f>N$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="O11" s="3">
         <f>O$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="P11" s="3">
         <f>P$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="Q11" s="3">
         <f>Q$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="R11" s="3">
         <f>R$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="S11" s="3">
         <f>S$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="T11" s="3">
         <f>T$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="U11" s="3">
         <f>U$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="V11" s="3">
         <f>V$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="W11" s="3">
         <f>W$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="X11" s="3">
         <f>X$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="Y11" s="3">
         <f>Y$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="Z11" s="3">
         <f>Z$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AA11" s="3">
         <f>AA$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AB11" s="3">
         <f>AB$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AC11" s="3">
         <f>AC$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AD11" s="3">
         <f>AD$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AE11" s="3">
         <f>AE$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
+        <v>2846475208983.6162</v>
       </c>
       <c r="AF11" s="3">
         <f>AF$2*'data from RPEpUACE'!$B11</f>
-        <v>1317689248076.8445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+        <v>2846475208983.6162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
         <f>B$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="C12" s="3">
         <f>C$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="D12" s="3">
         <f>D$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="E12" s="3">
         <f>E$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="F12" s="3">
         <f>F$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="G12" s="3">
         <f>G$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="H12" s="3">
         <f>H$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="I12" s="3">
         <f>I$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="J12" s="3">
         <f>J$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="K12" s="3">
         <f>K$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="L12" s="3">
         <f>L$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="M12" s="3">
         <f>M$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="N12" s="3">
         <f>N$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="O12" s="3">
         <f>O$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="P12" s="3">
         <f>P$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="Q12" s="3">
         <f>Q$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="R12" s="3">
         <f>R$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="S12" s="3">
         <f>S$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="T12" s="3">
         <f>T$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="U12" s="3">
         <f>U$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="V12" s="3">
         <f>V$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="W12" s="3">
         <f>W$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="X12" s="3">
         <f>X$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="Y12" s="3">
         <f>Y$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="Z12" s="3">
         <f>Z$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AA12" s="3">
         <f>AA$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AB12" s="3">
         <f>AB$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AC12" s="3">
         <f>AC$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AD12" s="3">
         <f>AD$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AE12" s="3">
         <f>AE$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
+        <v>87108207652.079819</v>
       </c>
       <c r="AF12" s="3">
         <f>AF$2*'data from RPEpUACE'!$B12</f>
-        <v>52707569923.073776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+        <v>87108207652.079819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
